--- a/branches/master/StructureDefinition-MedRecordMedicationScheduledAdministration.xlsx
+++ b/branches/master/StructureDefinition-MedRecordMedicationScheduledAdministration.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$78</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2498" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2785" uniqueCount="507">
   <si>
     <t>Path</t>
   </si>
@@ -217,13 +217,190 @@
 </t>
   </si>
   <si>
-    <t>MedicationRequest.implicitRules</t>
+    <t>MedicationRequest.meta.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>MedicationRequest.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>MedicationRequest.meta.versionId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Meta.versionId</t>
+  </si>
+  <si>
+    <t>MedicationRequest.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
+  </si>
+  <si>
+    <t>Meta.lastUpdated</t>
+  </si>
+  <si>
+    <t>MedicationRequest.meta.source</t>
   </si>
   <si>
     <t xml:space="preserve">uri
 </t>
   </si>
   <si>
+    <t>Identifies where the resource comes from</t>
+  </si>
+  <si>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+  </si>
+  <si>
+    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
+This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
+  </si>
+  <si>
+    <t>Meta.source</t>
+  </si>
+  <si>
+    <t>MedicationRequest.meta.profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(StructureDefinition)
+</t>
+  </si>
+  <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t>Meta.profile</t>
+  </si>
+  <si>
+    <t>MedicationRequest.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>Meta.security</t>
+  </si>
+  <si>
+    <t>MedicationRequest.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+  </si>
+  <si>
+    <t>Meta.tag</t>
+  </si>
+  <si>
+    <t>MedicationRequest.implicitRules</t>
+  </si>
+  <si>
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
@@ -319,28 +496,13 @@
     <t>MedicationRequest.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
     <t>Extension</t>
   </si>
   <si>
     <t>An Extension</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>treatmentPlan</t>
@@ -372,25 +534,7 @@
     <t>MedicationRequest.extension.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>MedicationRequest.extension.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>MedicationRequest.extension.url</t>
@@ -444,10 +588,6 @@
     <t>MedicationRequest.modifierExtension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -455,9 +595,6 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -542,9 +679,6 @@
   </si>
   <si>
     <t>This is generally only used for "exception" statuses such as "suspended" or "cancelled". The reason why the MedicationRequest was created at all is captured in reasonCode, not here.</t>
-  </si>
-  <si>
-    <t>example</t>
   </si>
   <si>
     <t>Identifies the reasons for a given status.</t>
@@ -1152,12 +1286,6 @@
   </si>
   <si>
     <t>MedicationRequest.dispenseRequest.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>MedicationRequest.dispenseRequest.modifierExtension</t>
@@ -1630,7 +1758,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN70"/>
+  <dimension ref="A1:AN78"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2160,23 +2288,21 @@
         <v>44</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>66</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="L5" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>69</v>
-      </c>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>44</v>
@@ -2225,7 +2351,7 @@
         <v>44</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>42</v>
@@ -2237,7 +2363,7 @@
         <v>44</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>44</v>
@@ -2246,7 +2372,7 @@
         <v>44</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>44</v>
@@ -2257,18 +2383,18 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>44</v>
@@ -2315,28 +2441,28 @@
         <v>44</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA6" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="AB6" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="AC6" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD6" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>79</v>
@@ -2345,13 +2471,13 @@
         <v>42</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>44</v>
@@ -2360,7 +2486,7 @@
         <v>44</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>44</v>
@@ -2371,11 +2497,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2391,7 +2517,7 @@
         <v>44</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>82</v>
@@ -2474,7 +2600,7 @@
         <v>44</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>44</v>
@@ -2485,18 +2611,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>44</v>
@@ -2505,19 +2631,19 @@
         <v>44</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2567,19 +2693,19 @@
         <v>44</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>44</v>
@@ -2588,7 +2714,7 @@
         <v>44</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>44</v>
@@ -2599,7 +2725,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2610,7 +2736,7 @@
         <v>42</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>44</v>
@@ -2619,18 +2745,20 @@
         <v>44</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K9" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>44</v>
@@ -2667,29 +2795,31 @@
         <v>44</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>44</v>
@@ -2707,42 +2837,42 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I10" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="H10" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I10" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="J10" t="s" s="2">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M10" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>44</v>
@@ -2791,7 +2921,7 @@
         <v>44</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>42</v>
@@ -2800,30 +2930,30 @@
         <v>43</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>111</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2834,7 +2964,7 @@
         <v>42</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>44</v>
@@ -2843,18 +2973,20 @@
         <v>44</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M11" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>44</v>
@@ -2879,13 +3011,13 @@
         <v>44</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>44</v>
@@ -2903,19 +3035,19 @@
         <v>44</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>44</v>
@@ -2924,7 +3056,7 @@
         <v>44</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>44</v>
@@ -2935,7 +3067,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2946,7 +3078,7 @@
         <v>42</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>44</v>
@@ -2955,18 +3087,20 @@
         <v>44</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M12" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>44</v>
@@ -2991,31 +3125,31 @@
         <v>44</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>42</v>
@@ -3027,7 +3161,7 @@
         <v>44</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>44</v>
@@ -3047,7 +3181,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3055,7 +3189,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>52</v>
@@ -3064,22 +3198,22 @@
         <v>44</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3087,7 +3221,7 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>44</v>
@@ -3129,10 +3263,10 @@
         <v>44</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>52</v>
@@ -3141,7 +3275,7 @@
         <v>44</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>44</v>
@@ -3150,7 +3284,7 @@
         <v>44</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>44</v>
@@ -3161,7 +3295,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3169,7 +3303,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>52</v>
@@ -3184,15 +3318,17 @@
         <v>44</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>44</v>
@@ -3217,29 +3353,31 @@
         <v>44</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AB14" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC14" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
@@ -3260,7 +3398,7 @@
         <v>44</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>44</v>
@@ -3271,17 +3409,15 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>52</v>
@@ -3296,15 +3432,17 @@
         <v>44</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="M15" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>44</v>
@@ -3353,7 +3491,7 @@
         <v>44</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
@@ -3374,7 +3512,7 @@
         <v>44</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>44</v>
@@ -3385,11 +3523,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3402,26 +3540,24 @@
         <v>44</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>44</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>44</v>
       </c>
@@ -3469,7 +3605,7 @@
         <v>44</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -3481,7 +3617,7 @@
         <v>44</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>44</v>
@@ -3490,7 +3626,7 @@
         <v>44</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>44</v>
@@ -3499,9 +3635,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3515,7 +3651,7 @@
         <v>43</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>44</v>
@@ -3524,17 +3660,15 @@
         <v>44</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>143</v>
+        <v>72</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>44</v>
@@ -3571,19 +3705,17 @@
         <v>44</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
@@ -3595,35 +3727,37 @@
         <v>44</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>147</v>
+        <v>44</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>148</v>
+        <v>44</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>149</v>
+        <v>44</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>151</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="C18" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>52</v>
@@ -3632,23 +3766,21 @@
         <v>53</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>72</v>
+        <v>157</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>44</v>
@@ -3673,13 +3805,13 @@
         <v>44</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>156</v>
+        <v>44</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>157</v>
+        <v>44</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>158</v>
+        <v>44</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>44</v>
@@ -3697,39 +3829,39 @@
         <v>44</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>160</v>
+        <v>44</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>162</v>
+        <v>44</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>44</v>
+        <v>163</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3743,7 +3875,7 @@
         <v>52</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>44</v>
@@ -3752,17 +3884,15 @@
         <v>44</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>164</v>
+        <v>54</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>165</v>
+        <v>66</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>44</v>
@@ -3787,13 +3917,13 @@
         <v>44</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>169</v>
+        <v>44</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>170</v>
+        <v>44</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>44</v>
@@ -3811,7 +3941,7 @@
         <v>44</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>163</v>
+        <v>68</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -3823,16 +3953,16 @@
         <v>44</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>171</v>
+        <v>44</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>172</v>
+        <v>69</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>44</v>
@@ -3843,7 +3973,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3851,32 +3981,30 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>72</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>44</v>
@@ -3886,7 +4014,7 @@
         <v>44</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>177</v>
+        <v>44</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>44</v>
@@ -3901,55 +4029,55 @@
         <v>44</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>156</v>
+        <v>44</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>178</v>
+        <v>44</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>179</v>
+        <v>44</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>173</v>
+        <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>180</v>
+        <v>44</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>181</v>
+        <v>44</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>182</v>
+        <v>44</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>44</v>
@@ -3957,7 +4085,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3965,10 +4093,10 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>44</v>
@@ -3980,16 +4108,16 @@
         <v>44</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>164</v>
+        <v>94</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3997,7 +4125,7 @@
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>44</v>
@@ -4015,13 +4143,13 @@
         <v>44</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>187</v>
+        <v>44</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>188</v>
+        <v>44</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>44</v>
@@ -4039,31 +4167,31 @@
         <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>189</v>
+        <v>44</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>182</v>
+        <v>44</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>44</v>
@@ -4071,7 +4199,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4079,7 +4207,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>52</v>
@@ -4091,16 +4219,16 @@
         <v>44</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>72</v>
+        <v>173</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4127,31 +4255,29 @@
         <v>44</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>156</v>
+        <v>44</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>194</v>
+        <v>44</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>195</v>
+        <v>44</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>44</v>
+        <v>177</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -4166,16 +4292,16 @@
         <v>64</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>196</v>
+        <v>44</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>197</v>
+        <v>151</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>198</v>
+        <v>44</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>44</v>
@@ -4183,15 +4309,17 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="C23" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>52</v>
@@ -4200,23 +4328,21 @@
         <v>44</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>44</v>
@@ -4265,7 +4391,7 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -4286,7 +4412,7 @@
         <v>44</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>204</v>
+        <v>151</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>44</v>
@@ -4297,39 +4423,43 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>206</v>
+        <v>72</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>44</v>
       </c>
@@ -4377,19 +4507,19 @@
         <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>44</v>
@@ -4398,7 +4528,7 @@
         <v>44</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>209</v>
+        <v>151</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>44</v>
@@ -4407,9 +4537,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4417,31 +4547,31 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4467,35 +4597,37 @@
         <v>44</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>215</v>
+        <v>44</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>216</v>
+        <v>44</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AB25" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC25" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>44</v>
@@ -4504,34 +4636,32 @@
         <v>64</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>221</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>52</v>
@@ -4540,22 +4670,22 @@
         <v>53</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4581,13 +4711,13 @@
         <v>44</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>44</v>
@@ -4605,7 +4735,7 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>52</v>
@@ -4620,28 +4750,26 @@
         <v>64</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>221</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>44</v>
       </c>
@@ -4659,19 +4787,19 @@
         <v>44</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4697,13 +4825,13 @@
         <v>44</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>44</v>
+        <v>212</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>44</v>
+        <v>213</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>44</v>
@@ -4721,10 +4849,10 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>52</v>
@@ -4736,24 +4864,24 @@
         <v>64</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>218</v>
+        <v>44</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>220</v>
+        <v>44</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>221</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4767,25 +4895,25 @@
         <v>52</v>
       </c>
       <c r="G28" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H28" t="s" s="2">
         <v>53</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>226</v>
+        <v>128</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4796,7 +4924,7 @@
         <v>44</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>44</v>
@@ -4811,13 +4939,13 @@
         <v>44</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>44</v>
+        <v>200</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>44</v>
+        <v>221</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>44</v>
+        <v>222</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>44</v>
@@ -4835,7 +4963,7 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>52</v>
@@ -4850,24 +4978,24 @@
         <v>64</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>231</v>
+        <v>44</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>234</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4878,10 +5006,10 @@
         <v>42</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>44</v>
@@ -4890,16 +5018,16 @@
         <v>44</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4925,13 +5053,13 @@
         <v>44</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>44</v>
+        <v>231</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>44</v>
@@ -4949,13 +5077,13 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>44</v>
@@ -4964,24 +5092,24 @@
         <v>64</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>240</v>
+        <v>44</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>160</v>
+        <v>232</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>243</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4992,7 +5120,7 @@
         <v>42</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>44</v>
@@ -5001,16 +5129,16 @@
         <v>44</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>245</v>
+        <v>128</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5037,13 +5165,13 @@
         <v>44</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>44</v>
+        <v>200</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>44</v>
+        <v>237</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>44</v>
+        <v>238</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>44</v>
@@ -5061,13 +5189,13 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>44</v>
@@ -5076,16 +5204,16 @@
         <v>64</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>44</v>
@@ -5093,7 +5221,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5110,21 +5238,23 @@
         <v>44</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>44</v>
@@ -5173,7 +5303,7 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -5188,24 +5318,24 @@
         <v>64</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>254</v>
+        <v>44</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>255</v>
+        <v>44</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>257</v>
+        <v>44</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>258</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5228,13 +5358,13 @@
         <v>53</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5285,7 +5415,7 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5300,16 +5430,16 @@
         <v>64</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>263</v>
+        <v>44</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>264</v>
+        <v>44</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>44</v>
@@ -5317,7 +5447,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5325,7 +5455,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>52</v>
@@ -5337,18 +5467,20 @@
         <v>44</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>44</v>
@@ -5373,34 +5505,32 @@
         <v>44</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>44</v>
+        <v>258</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>44</v>
+        <v>259</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="AB33" s="2"/>
       <c r="AC33" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>44</v>
+        <v>177</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>52</v>
@@ -5412,26 +5542,28 @@
         <v>64</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>44</v>
+        <v>261</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>44</v>
+        <v>264</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="B34" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="C34" t="s" s="2">
         <v>44</v>
       </c>
@@ -5443,7 +5575,7 @@
         <v>52</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>44</v>
@@ -5452,16 +5584,16 @@
         <v>53</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>164</v>
+        <v>208</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5487,13 +5619,13 @@
         <v>44</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>168</v>
+        <v>118</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>44</v>
@@ -5511,10 +5643,10 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>52</v>
@@ -5526,26 +5658,28 @@
         <v>64</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>44</v>
+        <v>261</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>44</v>
+        <v>263</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>44</v>
+        <v>264</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="B35" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="C35" t="s" s="2">
         <v>44</v>
       </c>
@@ -5557,24 +5691,26 @@
         <v>52</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>44</v>
@@ -5623,10 +5759,10 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>52</v>
@@ -5638,24 +5774,24 @@
         <v>64</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>44</v>
+        <v>260</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>44</v>
+        <v>261</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>44</v>
+        <v>264</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5663,10 +5799,10 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>53</v>
@@ -5675,19 +5811,19 @@
         <v>44</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>164</v>
+        <v>269</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5713,13 +5849,13 @@
         <v>44</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>290</v>
+        <v>44</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>291</v>
+        <v>44</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>44</v>
@@ -5737,13 +5873,13 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>44</v>
@@ -5752,24 +5888,24 @@
         <v>64</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>296</v>
+        <v>277</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5780,10 +5916,10 @@
         <v>42</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>44</v>
@@ -5792,16 +5928,16 @@
         <v>44</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5851,13 +5987,13 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>44</v>
@@ -5866,24 +6002,24 @@
         <v>64</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>160</v>
+        <v>204</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>44</v>
+        <v>286</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5903,16 +6039,16 @@
         <v>44</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5963,7 +6099,7 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -5978,16 +6114,16 @@
         <v>64</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>44</v>
+        <v>285</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>44</v>
@@ -5995,7 +6131,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6006,7 +6142,7 @@
         <v>42</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>44</v>
@@ -6018,13 +6154,13 @@
         <v>53</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>66</v>
+        <v>294</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6075,13 +6211,13 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>44</v>
@@ -6090,24 +6226,24 @@
         <v>64</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>44</v>
+        <v>297</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>44</v>
+        <v>298</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>44</v>
+        <v>300</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>44</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6118,7 +6254,7 @@
         <v>42</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>44</v>
@@ -6130,13 +6266,13 @@
         <v>53</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6187,13 +6323,13 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>44</v>
@@ -6202,24 +6338,24 @@
         <v>64</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>318</v>
+        <v>275</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>44</v>
+        <v>307</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6233,27 +6369,25 @@
         <v>52</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>143</v>
+        <v>309</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="M41" s="2"/>
-      <c r="N41" t="s" s="2">
-        <v>322</v>
-      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>44</v>
       </c>
@@ -6301,7 +6435,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6316,16 +6450,16 @@
         <v>64</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>44</v>
+        <v>314</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>44</v>
@@ -6333,7 +6467,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6353,19 +6487,19 @@
         <v>44</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>164</v>
+        <v>208</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6391,13 +6525,13 @@
         <v>44</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>168</v>
+        <v>118</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>44</v>
@@ -6415,7 +6549,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6430,13 +6564,13 @@
         <v>64</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>44</v>
+        <v>321</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>44</v>
@@ -6447,7 +6581,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6458,7 +6592,7 @@
         <v>42</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>44</v>
@@ -6470,13 +6604,13 @@
         <v>44</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6527,13 +6661,13 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>44</v>
@@ -6542,16 +6676,16 @@
         <v>64</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>336</v>
+        <v>44</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>44</v>
+        <v>328</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>44</v>
@@ -6559,7 +6693,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6582,15 +6716,17 @@
         <v>44</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>339</v>
+        <v>208</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>44</v>
@@ -6615,13 +6751,13 @@
         <v>44</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>44</v>
+        <v>333</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>44</v>
+        <v>334</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>44</v>
@@ -6639,7 +6775,7 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6654,24 +6790,24 @@
         <v>64</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>44</v>
+        <v>338</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>44</v>
+        <v>339</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6685,7 +6821,7 @@
         <v>43</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>44</v>
@@ -6694,16 +6830,16 @@
         <v>44</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6753,7 +6889,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6768,16 +6904,16 @@
         <v>64</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>44</v>
+        <v>204</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>44</v>
+        <v>338</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>44</v>
@@ -6785,7 +6921,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6796,7 +6932,7 @@
         <v>42</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>44</v>
@@ -6805,16 +6941,16 @@
         <v>44</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6865,13 +7001,13 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>44</v>
@@ -6880,13 +7016,13 @@
         <v>64</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>44</v>
+        <v>351</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>356</v>
+        <v>44</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>44</v>
@@ -6897,7 +7033,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6908,7 +7044,7 @@
         <v>42</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>44</v>
@@ -6917,16 +7053,16 @@
         <v>44</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>113</v>
+        <v>354</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>114</v>
+        <v>355</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6977,19 +7113,19 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>115</v>
+        <v>353</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>44</v>
@@ -6998,7 +7134,7 @@
         <v>44</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>116</v>
+        <v>352</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>44</v>
@@ -7009,11 +7145,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7029,20 +7165,18 @@
         <v>44</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>97</v>
+        <v>357</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>44</v>
@@ -7091,7 +7225,7 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>119</v>
+        <v>356</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -7103,16 +7237,16 @@
         <v>44</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>44</v>
+        <v>360</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>116</v>
+        <v>361</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>44</v>
@@ -7121,44 +7255,42 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
         <v>362</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>363</v>
+        <v>44</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>97</v>
+        <v>187</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" s="2"/>
+      <c r="N49" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>44</v>
@@ -7207,28 +7339,28 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="AF49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AK49" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>95</v>
+        <v>367</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>44</v>
@@ -7239,7 +7371,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7262,16 +7394,16 @@
         <v>44</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>353</v>
+        <v>208</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7297,13 +7429,13 @@
         <v>44</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>44</v>
+        <v>372</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>44</v>
+        <v>373</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>44</v>
@@ -7321,7 +7453,7 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7342,7 +7474,7 @@
         <v>44</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>44</v>
@@ -7353,7 +7485,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7364,7 +7496,7 @@
         <v>42</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>44</v>
@@ -7376,13 +7508,13 @@
         <v>44</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>54</v>
+        <v>376</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>113</v>
+        <v>377</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>114</v>
+        <v>378</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7433,28 +7565,28 @@
         <v>44</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>115</v>
+        <v>375</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>44</v>
+        <v>379</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>116</v>
+        <v>380</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>44</v>
@@ -7463,13 +7595,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7479,7 +7611,7 @@
         <v>43</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>44</v>
@@ -7488,17 +7620,15 @@
         <v>44</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>97</v>
+        <v>382</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>44</v>
@@ -7547,7 +7677,7 @@
         <v>44</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>119</v>
+        <v>381</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7559,16 +7689,16 @@
         <v>44</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>44</v>
+        <v>385</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>44</v>
+        <v>386</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>116</v>
+        <v>387</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>44</v>
@@ -7577,13 +7707,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>363</v>
+        <v>44</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7593,29 +7723,27 @@
         <v>43</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>97</v>
+        <v>389</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>364</v>
+        <v>390</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>365</v>
+        <v>391</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>44</v>
       </c>
@@ -7663,7 +7791,7 @@
         <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -7675,16 +7803,16 @@
         <v>44</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>44</v>
+        <v>393</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>95</v>
+        <v>394</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>44</v>
@@ -7695,7 +7823,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7718,13 +7846,13 @@
         <v>44</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7775,7 +7903,7 @@
         <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -7793,10 +7921,10 @@
         <v>44</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>44</v>
+        <v>399</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>379</v>
+        <v>400</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>44</v>
@@ -7807,7 +7935,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>380</v>
+        <v>401</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7830,13 +7958,13 @@
         <v>44</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>381</v>
+        <v>54</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>382</v>
+        <v>66</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>383</v>
+        <v>67</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7887,7 +8015,7 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>380</v>
+        <v>68</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -7899,7 +8027,7 @@
         <v>44</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>44</v>
@@ -7908,7 +8036,7 @@
         <v>44</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>384</v>
+        <v>69</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>44</v>
@@ -7919,18 +8047,18 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>44</v>
@@ -7942,15 +8070,17 @@
         <v>44</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>381</v>
+        <v>72</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>386</v>
+        <v>73</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>44</v>
@@ -7999,19 +8129,19 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>385</v>
+        <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>44</v>
@@ -8020,7 +8150,7 @@
         <v>44</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>384</v>
+        <v>69</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>44</v>
@@ -8031,42 +8161,42 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>44</v>
+        <v>404</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>389</v>
+        <v>72</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>392</v>
+        <v>75</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>393</v>
+        <v>184</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>44</v>
@@ -8115,28 +8245,28 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>394</v>
+        <v>44</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>395</v>
+        <v>151</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>44</v>
@@ -8147,7 +8277,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8170,16 +8300,16 @@
         <v>44</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8229,7 +8359,7 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -8247,21 +8377,21 @@
         <v>44</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>401</v>
+        <v>44</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>403</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8284,13 +8414,13 @@
         <v>44</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>376</v>
+        <v>54</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>405</v>
+        <v>66</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>406</v>
+        <v>67</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8341,7 +8471,7 @@
         <v>44</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>404</v>
+        <v>68</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8353,38 +8483,38 @@
         <v>44</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>407</v>
+        <v>44</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>408</v>
+        <v>69</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>409</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>44</v>
@@ -8396,16 +8526,16 @@
         <v>44</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>381</v>
+        <v>72</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>411</v>
+        <v>73</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>412</v>
+        <v>74</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>413</v>
+        <v>75</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8455,28 +8585,28 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>410</v>
+        <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>414</v>
+        <v>44</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>415</v>
+        <v>69</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>44</v>
@@ -8487,39 +8617,43 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>44</v>
+        <v>404</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>417</v>
+        <v>72</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>44</v>
       </c>
@@ -8567,19 +8701,19 @@
         <v>44</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>44</v>
@@ -8588,10 +8722,10 @@
         <v>44</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>420</v>
+        <v>151</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>285</v>
+        <v>44</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>44</v>
@@ -8599,7 +8733,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8622,13 +8756,13 @@
         <v>44</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>353</v>
+        <v>417</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8679,7 +8813,7 @@
         <v>44</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
@@ -8697,10 +8831,10 @@
         <v>44</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>424</v>
+        <v>44</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>44</v>
@@ -8711,7 +8845,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8734,13 +8868,13 @@
         <v>44</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>54</v>
+        <v>422</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>113</v>
+        <v>423</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>114</v>
+        <v>424</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8791,7 +8925,7 @@
         <v>44</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>115</v>
+        <v>421</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
@@ -8803,7 +8937,7 @@
         <v>44</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>44</v>
@@ -8812,7 +8946,7 @@
         <v>44</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>116</v>
+        <v>425</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>44</v>
@@ -8823,18 +8957,18 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>44</v>
@@ -8846,17 +8980,15 @@
         <v>44</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>97</v>
+        <v>422</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>360</v>
+        <v>427</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>44</v>
@@ -8905,19 +9037,19 @@
         <v>44</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>119</v>
+        <v>426</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>44</v>
@@ -8926,7 +9058,7 @@
         <v>44</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>116</v>
+        <v>425</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>44</v>
@@ -8937,42 +9069,42 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>363</v>
+        <v>44</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>97</v>
+        <v>430</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>364</v>
+        <v>431</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>365</v>
+        <v>432</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>139</v>
+        <v>433</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>140</v>
+        <v>434</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>44</v>
@@ -9021,28 +9153,28 @@
         <v>44</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>366</v>
+        <v>429</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>44</v>
+        <v>435</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>95</v>
+        <v>436</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>44</v>
@@ -9053,7 +9185,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9061,7 +9193,7 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>52</v>
@@ -9076,16 +9208,16 @@
         <v>44</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9111,13 +9243,13 @@
         <v>44</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>434</v>
+        <v>44</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>435</v>
+        <v>44</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>44</v>
@@ -9135,10 +9267,10 @@
         <v>44</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>52</v>
@@ -9153,21 +9285,21 @@
         <v>44</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>424</v>
+        <v>442</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>437</v>
+        <v>444</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9190,13 +9322,13 @@
         <v>44</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>164</v>
+        <v>417</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9223,13 +9355,13 @@
         <v>44</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>441</v>
+        <v>44</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>442</v>
+        <v>44</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>44</v>
@@ -9247,7 +9379,7 @@
         <v>44</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
@@ -9265,21 +9397,21 @@
         <v>44</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9302,15 +9434,17 @@
         <v>44</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>447</v>
+        <v>422</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="M68" s="2"/>
+        <v>453</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>454</v>
+      </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>44</v>
@@ -9359,7 +9493,7 @@
         <v>44</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
@@ -9374,13 +9508,13 @@
         <v>64</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>450</v>
+        <v>44</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>44</v>
@@ -9391,18 +9525,18 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>453</v>
+        <v>44</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>44</v>
@@ -9414,17 +9548,15 @@
         <v>44</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>457</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>44</v>
@@ -9473,13 +9605,13 @@
         <v>44</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>44</v>
@@ -9494,10 +9626,10 @@
         <v>44</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>44</v>
+        <v>328</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>44</v>
@@ -9505,7 +9637,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9516,7 +9648,7 @@
         <v>42</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>44</v>
@@ -9528,17 +9660,15 @@
         <v>44</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>460</v>
+        <v>396</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>463</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>44</v>
@@ -9587,13 +9717,13 @@
         <v>44</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>44</v>
@@ -9602,23 +9732,931 @@
         <v>64</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>464</v>
+        <v>44</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>44</v>
+        <v>465</v>
       </c>
       <c r="AL70" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK74" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="AM70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN70" t="s" s="2">
+      <c r="AL74" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN78" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN70">
+  <autoFilter ref="A1:AN78">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9628,7 +10666,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI69">
+  <conditionalFormatting sqref="A2:AI77">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
